--- a/srcs/shablons/SPD.xlsx
+++ b/srcs/shablons/SPD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\ENGGEO_program\srcs\shablons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\srcs\shablons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CEEA2C-1038-473E-990C-6B6DDE43C984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC8291-23DE-49BE-9900-436438C6E8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$L$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$L$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="57">
   <si>
     <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
   </si>
@@ -142,15 +142,6 @@
     <t xml:space="preserve">Одометрический модуль деформации Eoed (0,1-0,2), Мпа = </t>
   </si>
   <si>
-    <t xml:space="preserve">Компрессионный модуль деформации Ek (0,1-0,2), Мпа = </t>
-  </si>
-  <si>
-    <t>Исполнитель:</t>
-  </si>
-  <si>
-    <t>Морозов Д.С.</t>
-  </si>
-  <si>
     <t>Начальник исп. лаборатории:</t>
   </si>
   <si>
@@ -218,6 +209,9 @@
   </si>
   <si>
     <t>Линия тренда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Касательный модуль деформации E, Мпа = </t>
   </si>
 </sst>
 </file>
@@ -516,7 +510,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -691,10 +685,25 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,26 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1200,54 +1189,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>10501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>98493</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>125906</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image1-4.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect l="53604" t="72637" r="12698" b="9368"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4482353" y="8325266"/>
-          <a:ext cx="1476816" cy="742934"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>166409</xdr:colOff>
       <xdr:row>44</xdr:row>
@@ -1658,8 +1599,8 @@
   </sheetPr>
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1676,52 +1617,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
@@ -1738,52 +1679,52 @@
       <c r="L4" s="33"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
@@ -1800,14 +1741,14 @@
       <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="41" t="s">
         <v>7</v>
       </c>
@@ -1832,20 +1773,20 @@
       <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
@@ -1929,20 +1870,20 @@
       <c r="L16" s="36"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="49" t="s">
@@ -2012,36 +1953,26 @@
       <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-    </row>
     <row r="29" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="55" t="s">
         <v>28</v>
@@ -2055,22 +1986,18 @@
       <c r="D29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="79" t="s">
+      <c r="F29" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="57">
@@ -2083,28 +2010,26 @@
         <v>0</v>
       </c>
       <c r="D30" s="59"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="60"/>
       <c r="B31" s="61"/>
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="57">
@@ -2123,28 +2048,26 @@
         <f>I31</f>
         <v>0</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
     </row>
     <row r="33" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="60"/>
       <c r="B33" s="61"/>
       <c r="C33" s="62"/>
       <c r="D33" s="62"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
     </row>
     <row r="34" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="57">
@@ -2163,28 +2086,26 @@
         <f>I32</f>
         <v>0</v>
       </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="60"/>
       <c r="B35" s="61"/>
       <c r="C35" s="62"/>
       <c r="D35" s="62"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="57">
@@ -2203,38 +2124,36 @@
         <f>I33</f>
         <v>0</v>
       </c>
-      <c r="E36" s="78"/>
-      <c r="F36" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="81"/>
-      <c r="H36" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
+      <c r="F36" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="70"/>
+      <c r="H36" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60"/>
       <c r="B37" s="61"/>
       <c r="C37" s="62"/>
       <c r="D37" s="62"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="81"/>
-      <c r="H37" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
+      <c r="F37" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="70"/>
+      <c r="H37" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
       <c r="T37" s="31"/>
       <c r="U37" s="31"/>
     </row>
@@ -2255,16 +2174,15 @@
         <f>I34</f>
         <v>0</v>
       </c>
-      <c r="E38" s="78"/>
-      <c r="F38" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="81"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
+      <c r="F38" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="70"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
       <c r="T38" s="31"/>
     </row>
     <row r="39" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2272,19 +2190,18 @@
       <c r="B39" s="61"/>
       <c r="C39" s="62"/>
       <c r="D39" s="62"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="81">
+      <c r="F39" s="70">
         <f>G36</f>
         <v>0</v>
       </c>
-      <c r="G39" s="81">
+      <c r="G39" s="70">
         <v>0</v>
       </c>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
     </row>
     <row r="40" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="57">
@@ -2303,99 +2220,87 @@
         <f>I35</f>
         <v>0</v>
       </c>
-      <c r="E40" s="78"/>
-      <c r="F40" s="81">
+      <c r="F40" s="70">
         <f>G36</f>
         <v>0</v>
       </c>
-      <c r="G40" s="81">
+      <c r="G40" s="70">
         <f>G37</f>
         <v>0</v>
       </c>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
     </row>
     <row r="41" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="60"/>
       <c r="B41" s="61"/>
       <c r="C41" s="62"/>
       <c r="D41" s="62"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="81"/>
-      <c r="H41" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
+      <c r="F41" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="70"/>
+      <c r="H41" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
     </row>
     <row r="42" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="63"/>
       <c r="B42" s="58"/>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="81">
+      <c r="F42" s="70">
         <v>0</v>
       </c>
-      <c r="G42" s="81">
+      <c r="G42" s="70">
         <f>G37</f>
         <v>0</v>
       </c>
-      <c r="H42" s="80">
+      <c r="H42" s="32">
         <f>F30</f>
         <v>0</v>
       </c>
-      <c r="I42" s="80">
+      <c r="I42" s="32">
         <f>I36</f>
         <v>0</v>
       </c>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
     </row>
     <row r="43" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="60"/>
       <c r="B43" s="61"/>
       <c r="C43" s="62"/>
       <c r="D43" s="62"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="81">
+      <c r="F43" s="70">
         <f>G36</f>
         <v>0</v>
       </c>
-      <c r="G43" s="81">
+      <c r="G43" s="70">
         <f>G37</f>
         <v>0</v>
       </c>
-      <c r="H43" s="80">
+      <c r="H43" s="32">
         <f>K37</f>
         <v>0</v>
       </c>
-      <c r="I43" s="80">
+      <c r="I43" s="32">
         <f>I37</f>
         <v>0</v>
       </c>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
       <c r="P44" s="32"/>
       <c r="Q44" s="31"/>
     </row>
@@ -2414,7 +2319,7 @@
     <row r="46" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="F46" s="64" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="G46" s="68" t="e">
         <f>G36/(G37-I36)</f>
@@ -2433,17 +2338,13 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="36"/>
-      <c r="B50" s="35" t="s">
-        <v>34</v>
-      </c>
+      <c r="B50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="36" t="s">
-        <v>35</v>
-      </c>
+      <c r="I50" s="36"/>
       <c r="J50" s="36"/>
       <c r="K50" s="40"/>
       <c r="L50" s="36"/>
@@ -2451,7 +2352,7 @@
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="36"/>
       <c r="B51" s="35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -2459,7 +2360,7 @@
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J51" s="36"/>
       <c r="K51" s="40"/>
@@ -2480,42 +2381,47 @@
       <c r="L52" s="36"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A53" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
+      <c r="A53" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A54" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
+      <c r="A54" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G56" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="A18:L18"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A7:L7"/>
     <mergeCell ref="A1:L1"/>
@@ -2523,14 +2429,9 @@
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="A18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2557,36 +2458,36 @@
     <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2597,13 +2498,13 @@
       <c r="E13" s="12"/>
       <c r="F13" s="23"/>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2623,7 +2524,7 @@
         <v>0.45</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2643,7 +2544,7 @@
         <v>0.46</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2663,7 +2564,7 @@
         <v>0.47</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2683,7 +2584,7 @@
         <v>0.48</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2703,7 +2604,7 @@
         <v>0.49</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2723,7 +2624,7 @@
         <v>0.5</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2743,7 +2644,7 @@
         <v>0.51</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2763,7 +2664,7 @@
         <v>0.52</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2783,7 +2684,7 @@
         <v>0.53</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2803,7 +2704,7 @@
         <v>0.54</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2823,7 +2724,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2845,7 +2746,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2867,7 +2768,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2889,7 +2790,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2911,7 +2812,7 @@
         <v>0.59</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2933,7 +2834,7 @@
         <v>0.6</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2955,7 +2856,7 @@
         <v>0.61</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2977,7 +2878,7 @@
         <v>0.62</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2999,7 +2900,7 @@
         <v>0.63</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3021,7 +2922,7 @@
         <v>0.64</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3494,7 +3395,7 @@
         <v>0.86</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="13">
         <v>0.86</v>
@@ -3516,7 +3417,7 @@
         <v>0.87</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C56" s="13">
         <v>0.87</v>
@@ -3538,7 +3439,7 @@
         <v>0.88</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C57" s="13">
         <v>0.88</v>
@@ -3560,7 +3461,7 @@
         <v>0.89</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C58" s="13">
         <v>0.89</v>
@@ -3582,7 +3483,7 @@
         <v>0.9</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C59" s="13">
         <v>0.9</v>
@@ -3604,7 +3505,7 @@
         <v>0.91</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C60" s="13">
         <v>0.91</v>
@@ -3626,7 +3527,7 @@
         <v>0.92</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C61" s="13">
         <v>0.92</v>
@@ -3648,7 +3549,7 @@
         <v>0.93</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C62" s="13">
         <v>0.93</v>
@@ -3670,7 +3571,7 @@
         <v>0.94</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C63" s="13">
         <v>0.94</v>
@@ -3692,7 +3593,7 @@
         <v>0.95</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C64" s="13">
         <v>0.95</v>
@@ -3712,7 +3613,7 @@
         <v>0.96</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C65" s="13">
         <v>0.96</v>
@@ -3734,7 +3635,7 @@
         <v>0.97</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C66" s="13">
         <v>0.97</v>
@@ -3756,7 +3657,7 @@
         <v>0.98</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C67" s="13">
         <v>0.98</v>
@@ -3778,7 +3679,7 @@
         <v>0.99</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C68" s="13">
         <v>0.99</v>
@@ -3800,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C69" s="13">
         <v>1</v>
@@ -3822,7 +3723,7 @@
         <v>1.01</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C70" s="13">
         <v>1.01</v>
@@ -3844,7 +3745,7 @@
         <v>1.02</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C71" s="13">
         <v>1.02</v>
@@ -3866,7 +3767,7 @@
         <v>1.03</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C72" s="13">
         <v>1.03</v>
@@ -3888,7 +3789,7 @@
         <v>1.04</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C73" s="13">
         <v>1.04</v>
@@ -3910,7 +3811,7 @@
         <v>1.05</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C74" s="13">
         <v>1.05</v>
@@ -3930,19 +3831,19 @@
         <v>1.06</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C75" s="13">
         <v>1.06</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E75" s="13">
         <v>1.06</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3950,19 +3851,19 @@
         <v>1.07</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C76" s="13">
         <v>1.07</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E76" s="13">
         <v>1.07</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3970,19 +3871,19 @@
         <v>1.08</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C77" s="13">
         <v>1.08</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E77" s="13">
         <v>1.08</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3990,19 +3891,19 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C78" s="13">
         <v>1.0900000000000001</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E78" s="13">
         <v>1.0900000000000001</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4010,19 +3911,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C79" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E79" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4030,19 +3931,19 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C80" s="13">
         <v>1.1100000000000001</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E80" s="13">
         <v>1.1100000000000001</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4050,19 +3951,19 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C81" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E81" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4070,19 +3971,19 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C82" s="13">
         <v>1.1299999999999999</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E82" s="13">
         <v>1.1299999999999999</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4090,19 +3991,19 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C83" s="13">
         <v>1.1399999999999999</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E83" s="13">
         <v>1.1399999999999999</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4110,19 +4011,19 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C84" s="13">
         <v>1.1499999999999999</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E84" s="13">
         <v>1.1499999999999999</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4130,19 +4031,19 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C85" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E85" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4150,19 +4051,19 @@
         <v>1.17</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C86" s="13">
         <v>1.17</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E86" s="13">
         <v>1.17</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4170,19 +4071,19 @@
         <v>1.18</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C87" s="13">
         <v>1.18</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E87" s="13">
         <v>1.18</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4190,19 +4091,19 @@
         <v>1.19</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C88" s="13">
         <v>1.19</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E88" s="13">
         <v>1.19</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4210,19 +4111,19 @@
         <v>1.2</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C89" s="13">
         <v>1.2</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E89" s="13">
         <v>1.2</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4230,19 +4131,19 @@
         <v>1.21</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C90" s="13">
         <v>1.21</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E90" s="13">
         <v>1.21</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4250,19 +4151,19 @@
         <v>1.22</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C91" s="13">
         <v>1.22</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E91" s="13">
         <v>1.22</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4270,19 +4171,19 @@
         <v>1.23</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C92" s="13">
         <v>1.23</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E92" s="13">
         <v>1.23</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4290,19 +4191,19 @@
         <v>1.24</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C93" s="13">
         <v>1.24</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E93" s="13">
         <v>1.24</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4310,19 +4211,19 @@
         <v>1.25</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C94" s="13">
         <v>1.25</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E94" s="13">
         <v>1.25</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4330,19 +4231,19 @@
         <v>1.26</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C95" s="13">
         <v>1.26</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E95" s="13">
         <v>1.26</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4350,19 +4251,19 @@
         <v>1.27</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C96" s="13">
         <v>1.27</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E96" s="13">
         <v>1.27</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4370,19 +4271,19 @@
         <v>1.28</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C97" s="13">
         <v>1.28</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E97" s="13">
         <v>1.28</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4390,19 +4291,19 @@
         <v>1.29</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C98" s="13">
         <v>1.29</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E98" s="13">
         <v>1.29</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4410,19 +4311,19 @@
         <v>1.3</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C99" s="13">
         <v>1.3</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E99" s="13">
         <v>1.3</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4430,19 +4331,19 @@
         <v>1.31</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C100" s="13">
         <v>1.31</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E100" s="13">
         <v>1.31</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4450,19 +4351,19 @@
         <v>1.32</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C101" s="13">
         <v>1.32</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E101" s="13">
         <v>1.32</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4470,19 +4371,19 @@
         <v>1.33</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C102" s="13">
         <v>1.33</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E102" s="13">
         <v>1.33</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4490,19 +4391,19 @@
         <v>1.34</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C103" s="13">
         <v>1.34</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E103" s="13">
         <v>1.34</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4510,19 +4411,19 @@
         <v>1.35</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C104" s="29">
         <v>1.35</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E104" s="29">
         <v>1.35</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">

--- a/srcs/shablons/SPD.xlsx
+++ b/srcs/shablons/SPD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\srcs\shablons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC8291-23DE-49BE-9900-436438C6E8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7849E89-53A2-49F5-ABA5-523561D2E2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -694,11 +694,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -715,6 +715,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1600,7 +1603,7 @@
   <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1617,52 +1620,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
@@ -1679,52 +1682,52 @@
       <c r="L4" s="33"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
@@ -1744,11 +1747,11 @@
       <c r="A9" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="41" t="s">
         <v>7</v>
       </c>
@@ -1776,17 +1779,17 @@
       <c r="A11" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
@@ -1873,17 +1876,17 @@
       <c r="A18" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="49" t="s">
@@ -1956,17 +1959,17 @@
       <c r="A26" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -2384,39 +2387,54 @@
       <c r="A53" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55" s="80"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G56" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A55:L55"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="A26:L26"/>
     <mergeCell ref="A53:L53"/>
